--- a/loadCaseVariables.xlsx
+++ b/loadCaseVariables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geraldlow/afd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geraldlow/twistInfidel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC76741C-B1A4-6D45-A040-0B1592951537}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA506E97-0B77-7740-9C15-F76A17367526}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14580" xr2:uid="{960D66B6-E192-4D46-95EA-6D1BF3B83417}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="14580" xr2:uid="{960D66B6-E192-4D46-95EA-6D1BF3B83417}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Span Entire Fuselage</t>
   </si>
   <si>
-    <t>fuselageMass</t>
-  </si>
-  <si>
     <t>hydraulicsMass</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>avionicsMass</t>
+  </si>
+  <si>
+    <t>fuselageShellMass</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,22 +522,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>7850.3</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>257.3</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>781.4</v>
@@ -596,10 +596,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
       <c r="C5">
         <v>4134.5</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>653.6</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>3269</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>13970.6</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
       <c r="C9">
         <v>1432</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>360.9</v>
@@ -704,10 +704,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
       </c>
       <c r="C11">
         <v>2841.3</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>459.9</v>
@@ -741,10 +741,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
       </c>
       <c r="C13">
         <v>2841.3</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>350.6</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>682.6</v>
@@ -813,12 +813,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -828,7 +828,7 @@
     </row>
     <row r="5" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -838,7 +838,7 @@
     </row>
     <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
